--- a/example_excel_files/Dan's Application Cycle Processed.xlsx
+++ b/example_excel_files/Dan's Application Cycle Processed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TooFastDan\Documents\MD_PhD Application\Cycle Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TooFastDan\Documents\MD_PhD Application\Cycle Analyzer\example_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A4A674-5D40-44CD-8BE7-EDA37FD9FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56577B7E-0826-48EB-855A-A8DA816E363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="43">
   <si>
-    <t>Schools</t>
+    <t>schools</t>
   </si>
   <si>
     <t>Actions</t>
@@ -127,28 +127,28 @@
     <t>University of Colorado</t>
   </si>
   <si>
-    <t>Acceptance</t>
-  </si>
-  <si>
-    <t>Interview</t>
-  </si>
-  <si>
-    <t>Interview Invite</t>
-  </si>
-  <si>
-    <t>Rejection</t>
-  </si>
-  <si>
-    <t>Secondary Invite</t>
-  </si>
-  <si>
-    <t>Secondary Submission</t>
-  </si>
-  <si>
-    <t>Waitlist</t>
-  </si>
-  <si>
-    <t>Withdraw</t>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>interview invite</t>
+  </si>
+  <si>
+    <t>rejection</t>
+  </si>
+  <si>
+    <t>secondary invite</t>
+  </si>
+  <si>
+    <t>secondary submission</t>
+  </si>
+  <si>
+    <t>waitlist</t>
+  </si>
+  <si>
+    <t>withdraw</t>
   </si>
 </sst>
 </file>
@@ -558,14 +558,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,7 +633,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>44578.616111111107</v>
+        <v>44580.530497685177</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1097,7 +1098,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="2">
-        <v>44578.616111111107</v>
+        <v>44580.530497685177</v>
       </c>
       <c r="D44">
         <v>10</v>
@@ -1334,7 +1335,7 @@
         <v>37</v>
       </c>
       <c r="C65" s="2">
-        <v>44410.751388888893</v>
+        <v>44410</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1348,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="C66" s="2">
-        <v>44433.750694444447</v>
+        <v>44433</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -1362,7 +1363,7 @@
         <v>37</v>
       </c>
       <c r="C67" s="2">
-        <v>44434.543749999997</v>
+        <v>44434</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -1376,7 +1377,7 @@
         <v>37</v>
       </c>
       <c r="C68" s="2">
-        <v>44434.718055555553</v>
+        <v>44434</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -1390,7 +1391,7 @@
         <v>37</v>
       </c>
       <c r="C69" s="2">
-        <v>44435.523611111108</v>
+        <v>44435</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -1404,7 +1405,7 @@
         <v>37</v>
       </c>
       <c r="C70" s="2">
-        <v>44447.548611111109</v>
+        <v>44447</v>
       </c>
       <c r="D70">
         <v>6</v>
@@ -1418,7 +1419,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="2">
-        <v>44459.655555555553</v>
+        <v>44459</v>
       </c>
       <c r="D71">
         <v>7</v>
@@ -1432,7 +1433,7 @@
         <v>37</v>
       </c>
       <c r="C72" s="2">
-        <v>44460.566666666673</v>
+        <v>44460</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -1446,7 +1447,7 @@
         <v>37</v>
       </c>
       <c r="C73" s="2">
-        <v>44494.686805555553</v>
+        <v>44494</v>
       </c>
       <c r="D73">
         <v>9</v>
@@ -1460,7 +1461,7 @@
         <v>37</v>
       </c>
       <c r="C74" s="2">
-        <v>44510.720833333333</v>
+        <v>44510</v>
       </c>
       <c r="D74">
         <v>10</v>
@@ -1474,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="2">
-        <v>44578.616111111107</v>
+        <v>44580.530497685177</v>
       </c>
       <c r="D75">
         <v>10</v>
@@ -1711,7 +1712,7 @@
         <v>38</v>
       </c>
       <c r="C96" s="2">
-        <v>44414.518055555563</v>
+        <v>44414</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1725,7 +1726,7 @@
         <v>38</v>
       </c>
       <c r="C97" s="2">
-        <v>44470.67083333333</v>
+        <v>44470</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -1739,7 +1740,7 @@
         <v>38</v>
       </c>
       <c r="C98" s="2">
-        <v>44476.166666666657</v>
+        <v>44476</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -1753,7 +1754,7 @@
         <v>38</v>
       </c>
       <c r="C99" s="2">
-        <v>44509.560416666667</v>
+        <v>44509</v>
       </c>
       <c r="D99">
         <v>4</v>
@@ -1767,7 +1768,7 @@
         <v>38</v>
       </c>
       <c r="C100" s="2">
-        <v>44532.875694444447</v>
+        <v>44532</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -1781,7 +1782,7 @@
         <v>38</v>
       </c>
       <c r="C101" s="2">
-        <v>44536.706250000003</v>
+        <v>44536</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -1795,7 +1796,7 @@
         <v>38</v>
       </c>
       <c r="C102" s="2">
-        <v>44538.668749999997</v>
+        <v>44538</v>
       </c>
       <c r="D102">
         <v>7</v>
@@ -1809,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="C103" s="2">
-        <v>44546.372916666667</v>
+        <v>44546</v>
       </c>
       <c r="D103">
         <v>8</v>
@@ -1823,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="C104" s="2">
-        <v>44578.616111111107</v>
+        <v>44580.530497685177</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -2076,13 +2077,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
         <v>39</v>
       </c>
       <c r="C127" s="2">
-        <v>44372.369444444441</v>
+        <v>44372</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2090,13 +2091,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
         <v>39</v>
       </c>
       <c r="C128" s="2">
-        <v>44372.6</v>
+        <v>44372</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -2110,7 +2111,7 @@
         <v>39</v>
       </c>
       <c r="C129" s="2">
-        <v>44372.917361111111</v>
+        <v>44372</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -2124,7 +2125,7 @@
         <v>39</v>
       </c>
       <c r="C130" s="2">
-        <v>44373.209027777782</v>
+        <v>44373</v>
       </c>
       <c r="D130">
         <v>4</v>
@@ -2138,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="C131" s="2">
-        <v>44375.423611111109</v>
+        <v>44375</v>
       </c>
       <c r="D131">
         <v>5</v>
@@ -2152,7 +2153,7 @@
         <v>39</v>
       </c>
       <c r="C132" s="2">
-        <v>44377.356944444437</v>
+        <v>44377</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -2166,7 +2167,7 @@
         <v>39</v>
       </c>
       <c r="C133" s="2">
-        <v>44377.623611111107</v>
+        <v>44377</v>
       </c>
       <c r="D133">
         <v>7</v>
@@ -2180,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="C134" s="2">
-        <v>44378.418749999997</v>
+        <v>44378</v>
       </c>
       <c r="D134">
         <v>8</v>
@@ -2188,13 +2189,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B135" t="s">
         <v>39</v>
       </c>
       <c r="C135" s="2">
-        <v>44378.465277777781</v>
+        <v>44378</v>
       </c>
       <c r="D135">
         <v>9</v>
@@ -2202,13 +2203,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
         <v>39</v>
       </c>
       <c r="C136" s="2">
-        <v>44378.737500000003</v>
+        <v>44378</v>
       </c>
       <c r="D136">
         <v>10</v>
@@ -2222,7 +2223,7 @@
         <v>39</v>
       </c>
       <c r="C137" s="2">
-        <v>44379.506944444453</v>
+        <v>44379</v>
       </c>
       <c r="D137">
         <v>11</v>
@@ -2236,7 +2237,7 @@
         <v>39</v>
       </c>
       <c r="C138" s="2">
-        <v>44381.887499999997</v>
+        <v>44381</v>
       </c>
       <c r="D138">
         <v>12</v>
@@ -2250,7 +2251,7 @@
         <v>39</v>
       </c>
       <c r="C139" s="2">
-        <v>44383.426388888889</v>
+        <v>44383</v>
       </c>
       <c r="D139">
         <v>13</v>
@@ -2264,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="C140" s="2">
-        <v>44383.434027777781</v>
+        <v>44383</v>
       </c>
       <c r="D140">
         <v>14</v>
@@ -2272,16 +2273,16 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
         <v>39</v>
       </c>
       <c r="C141" s="2">
-        <v>44384.490277777782</v>
+        <v>44384</v>
       </c>
       <c r="D141">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,7 +2293,7 @@
         <v>39</v>
       </c>
       <c r="C142" s="2">
-        <v>44384.588194444441</v>
+        <v>44384</v>
       </c>
       <c r="D142">
         <v>16</v>
@@ -2300,27 +2301,27 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B143" t="s">
         <v>39</v>
       </c>
       <c r="C143" s="2">
-        <v>44384.658333333333</v>
+        <v>44384</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
         <v>39</v>
       </c>
       <c r="C144" s="2">
-        <v>44386.385416666657</v>
+        <v>44386</v>
       </c>
       <c r="D144">
         <v>18</v>
@@ -2328,13 +2329,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B145" t="s">
         <v>39</v>
       </c>
       <c r="C145" s="2">
-        <v>44386.536805555559</v>
+        <v>44386</v>
       </c>
       <c r="D145">
         <v>19</v>
@@ -2348,7 +2349,7 @@
         <v>39</v>
       </c>
       <c r="C146" s="2">
-        <v>44389.25</v>
+        <v>44389</v>
       </c>
       <c r="D146">
         <v>20</v>
@@ -2356,13 +2357,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B147" t="s">
         <v>39</v>
       </c>
       <c r="C147" s="2">
-        <v>44389.356249999997</v>
+        <v>44389</v>
       </c>
       <c r="D147">
         <v>21</v>
@@ -2370,13 +2371,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
         <v>39</v>
       </c>
       <c r="C148" s="2">
-        <v>44389.370833333327</v>
+        <v>44389</v>
       </c>
       <c r="D148">
         <v>22</v>
@@ -2390,7 +2391,7 @@
         <v>39</v>
       </c>
       <c r="C149" s="2">
-        <v>44391.208333333343</v>
+        <v>44391</v>
       </c>
       <c r="D149">
         <v>23</v>
@@ -2398,13 +2399,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B150" t="s">
         <v>39</v>
       </c>
       <c r="C150" s="2">
-        <v>44392.463888888888</v>
+        <v>44392</v>
       </c>
       <c r="D150">
         <v>24</v>
@@ -2412,13 +2413,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
         <v>39</v>
       </c>
       <c r="C151" s="2">
-        <v>44392.713888888888</v>
+        <v>44392</v>
       </c>
       <c r="D151">
         <v>25</v>
@@ -2432,7 +2433,7 @@
         <v>39</v>
       </c>
       <c r="C152" s="2">
-        <v>44393.447222222218</v>
+        <v>44393</v>
       </c>
       <c r="D152">
         <v>26</v>
@@ -2446,7 +2447,7 @@
         <v>39</v>
       </c>
       <c r="C153" s="2">
-        <v>44397.597916666673</v>
+        <v>44397</v>
       </c>
       <c r="D153">
         <v>27</v>
@@ -2460,7 +2461,7 @@
         <v>39</v>
       </c>
       <c r="C154" s="2">
-        <v>44397.61041666667</v>
+        <v>44397</v>
       </c>
       <c r="D154">
         <v>28</v>
@@ -2474,7 +2475,7 @@
         <v>39</v>
       </c>
       <c r="C155" s="2">
-        <v>44407.84652777778</v>
+        <v>44407</v>
       </c>
       <c r="D155">
         <v>29</v>
@@ -2488,7 +2489,7 @@
         <v>39</v>
       </c>
       <c r="C156" s="2">
-        <v>44578.616111111107</v>
+        <v>44580.530497685177</v>
       </c>
       <c r="D156">
         <v>29</v>
@@ -2510,13 +2511,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B158" t="s">
         <v>40</v>
       </c>
       <c r="C158" s="2">
-        <v>44373.215277777781</v>
+        <v>44373</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -2524,13 +2525,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
         <v>40</v>
       </c>
       <c r="C159" s="2">
-        <v>44373.925694444442</v>
+        <v>44373</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -2544,7 +2545,7 @@
         <v>40</v>
       </c>
       <c r="C160" s="2">
-        <v>44376.71597222222</v>
+        <v>44376</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -2558,7 +2559,7 @@
         <v>40</v>
       </c>
       <c r="C161" s="2">
-        <v>44377.508333333331</v>
+        <v>44377</v>
       </c>
       <c r="D161">
         <v>4</v>
@@ -2566,13 +2567,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B162" t="s">
         <v>40</v>
       </c>
       <c r="C162" s="2">
-        <v>44379.162499999999</v>
+        <v>44379</v>
       </c>
       <c r="D162">
         <v>5</v>
@@ -2580,13 +2581,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B163" t="s">
         <v>40</v>
       </c>
       <c r="C163" s="2">
-        <v>44379.838194444441</v>
+        <v>44379</v>
       </c>
       <c r="D163">
         <v>6</v>
@@ -2600,7 +2601,7 @@
         <v>40</v>
       </c>
       <c r="C164" s="2">
-        <v>44380.9375</v>
+        <v>44380</v>
       </c>
       <c r="D164">
         <v>7</v>
@@ -2614,7 +2615,7 @@
         <v>40</v>
       </c>
       <c r="C165" s="2">
-        <v>44381.810416666667</v>
+        <v>44381</v>
       </c>
       <c r="D165">
         <v>8</v>
@@ -2628,7 +2629,7 @@
         <v>40</v>
       </c>
       <c r="C166" s="2">
-        <v>44382.771527777782</v>
+        <v>44382</v>
       </c>
       <c r="D166">
         <v>9</v>
@@ -2642,7 +2643,7 @@
         <v>40</v>
       </c>
       <c r="C167" s="2">
-        <v>44383.981249999997</v>
+        <v>44383</v>
       </c>
       <c r="D167">
         <v>10</v>
@@ -2656,7 +2657,7 @@
         <v>40</v>
       </c>
       <c r="C168" s="2">
-        <v>44385.677083333343</v>
+        <v>44385</v>
       </c>
       <c r="D168">
         <v>11</v>
@@ -2670,7 +2671,7 @@
         <v>40</v>
       </c>
       <c r="C169" s="2">
-        <v>44387.847222222219</v>
+        <v>44387</v>
       </c>
       <c r="D169">
         <v>12</v>
@@ -2684,7 +2685,7 @@
         <v>40</v>
       </c>
       <c r="C170" s="2">
-        <v>44388.104166666657</v>
+        <v>44388</v>
       </c>
       <c r="D170">
         <v>13</v>
@@ -2698,7 +2699,7 @@
         <v>40</v>
       </c>
       <c r="C171" s="2">
-        <v>44388.885416666657</v>
+        <v>44388</v>
       </c>
       <c r="D171">
         <v>14</v>
@@ -2712,7 +2713,7 @@
         <v>40</v>
       </c>
       <c r="C172" s="2">
-        <v>44389.079861111109</v>
+        <v>44389</v>
       </c>
       <c r="D172">
         <v>15</v>
@@ -2726,7 +2727,7 @@
         <v>40</v>
       </c>
       <c r="C173" s="2">
-        <v>44391.728472222218</v>
+        <v>44391</v>
       </c>
       <c r="D173">
         <v>16</v>
@@ -2740,7 +2741,7 @@
         <v>40</v>
       </c>
       <c r="C174" s="2">
-        <v>44393.621527777781</v>
+        <v>44393</v>
       </c>
       <c r="D174">
         <v>17</v>
@@ -2754,7 +2755,7 @@
         <v>40</v>
       </c>
       <c r="C175" s="2">
-        <v>44394.519444444442</v>
+        <v>44394</v>
       </c>
       <c r="D175">
         <v>18</v>
@@ -2768,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="C176" s="2">
-        <v>44395.71597222222</v>
+        <v>44395</v>
       </c>
       <c r="D176">
         <v>19</v>
@@ -2782,7 +2783,7 @@
         <v>40</v>
       </c>
       <c r="C177" s="2">
-        <v>44396.560416666667</v>
+        <v>44396</v>
       </c>
       <c r="D177">
         <v>20</v>
@@ -2796,7 +2797,7 @@
         <v>40</v>
       </c>
       <c r="C178" s="2">
-        <v>44396.914583333331</v>
+        <v>44396</v>
       </c>
       <c r="D178">
         <v>21</v>
@@ -2810,7 +2811,7 @@
         <v>40</v>
       </c>
       <c r="C179" s="2">
-        <v>44401.109027777777</v>
+        <v>44401</v>
       </c>
       <c r="D179">
         <v>22</v>
@@ -2818,13 +2819,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B180" t="s">
         <v>40</v>
       </c>
       <c r="C180" s="2">
-        <v>44403.030555555553</v>
+        <v>44403</v>
       </c>
       <c r="D180">
         <v>23</v>
@@ -2832,13 +2833,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B181" t="s">
         <v>40</v>
       </c>
       <c r="C181" s="2">
-        <v>44403.995138888888</v>
+        <v>44403</v>
       </c>
       <c r="D181">
         <v>24</v>
@@ -2852,7 +2853,7 @@
         <v>40</v>
       </c>
       <c r="C182" s="2">
-        <v>44405.402777777781</v>
+        <v>44405</v>
       </c>
       <c r="D182">
         <v>25</v>
@@ -2866,7 +2867,7 @@
         <v>40</v>
       </c>
       <c r="C183" s="2">
-        <v>44405.972222222219</v>
+        <v>44405</v>
       </c>
       <c r="D183">
         <v>26</v>
@@ -2880,7 +2881,7 @@
         <v>40</v>
       </c>
       <c r="C184" s="2">
-        <v>44409.80972222222</v>
+        <v>44409</v>
       </c>
       <c r="D184">
         <v>27</v>
@@ -2894,7 +2895,7 @@
         <v>40</v>
       </c>
       <c r="C185" s="2">
-        <v>44431.136805555558</v>
+        <v>44431</v>
       </c>
       <c r="D185">
         <v>28</v>
@@ -2908,7 +2909,7 @@
         <v>40</v>
       </c>
       <c r="C186" s="2">
-        <v>44436.568055555559</v>
+        <v>44436</v>
       </c>
       <c r="D186">
         <v>29</v>
@@ -2922,7 +2923,7 @@
         <v>40</v>
       </c>
       <c r="C187" s="2">
-        <v>44578.616111111107</v>
+        <v>44580.530497685177</v>
       </c>
       <c r="D187">
         <v>29</v>
@@ -2950,7 +2951,7 @@
         <v>41</v>
       </c>
       <c r="C189" s="2">
-        <v>44467.542361111111</v>
+        <v>44467</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -2964,7 +2965,7 @@
         <v>41</v>
       </c>
       <c r="C190" s="2">
-        <v>44491.765972222223</v>
+        <v>44491</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -2978,7 +2979,7 @@
         <v>41</v>
       </c>
       <c r="C191" s="2">
-        <v>44516.5</v>
+        <v>44516</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -2992,7 +2993,7 @@
         <v>41</v>
       </c>
       <c r="C192" s="2">
-        <v>44540.90902777778</v>
+        <v>44540</v>
       </c>
       <c r="D192">
         <v>4</v>
@@ -3006,7 +3007,7 @@
         <v>41</v>
       </c>
       <c r="C193" s="2">
-        <v>44568.686111111107</v>
+        <v>44568</v>
       </c>
       <c r="D193">
         <v>5</v>
@@ -3020,7 +3021,7 @@
         <v>41</v>
       </c>
       <c r="C194" s="2">
-        <v>44571.797222222223</v>
+        <v>44571</v>
       </c>
       <c r="D194">
         <v>6</v>
@@ -3034,7 +3035,7 @@
         <v>41</v>
       </c>
       <c r="C195" s="2">
-        <v>44575.537499999999</v>
+        <v>44575</v>
       </c>
       <c r="D195">
         <v>7</v>
@@ -3048,7 +3049,7 @@
         <v>41</v>
       </c>
       <c r="C196" s="2">
-        <v>44578.616111111107</v>
+        <v>44580.530497685177</v>
       </c>
       <c r="D196">
         <v>7</v>
@@ -3312,335 +3313,341 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B220" t="s">
         <v>42</v>
       </c>
       <c r="C220" s="2">
-        <v>44578.616111111107</v>
+        <v>44573</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B221" t="s">
         <v>42</v>
       </c>
+      <c r="C221" s="2">
+        <v>44575</v>
+      </c>
       <c r="D221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B222" t="s">
         <v>42</v>
       </c>
+      <c r="C222" s="2">
+        <v>44580.530497685177</v>
+      </c>
       <c r="D222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s">
         <v>42</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
         <v>42</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B225" t="s">
         <v>42</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B226" t="s">
         <v>42</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B227" t="s">
         <v>42</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
         <v>42</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
         <v>42</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B230" t="s">
         <v>42</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
         <v>42</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B232" t="s">
         <v>42</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B233" t="s">
         <v>42</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B234" t="s">
         <v>42</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B235" t="s">
         <v>42</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B236" t="s">
         <v>42</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B237" t="s">
         <v>42</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B238" t="s">
         <v>42</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B239" t="s">
         <v>42</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B240" t="s">
         <v>42</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B241" t="s">
         <v>42</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B242" t="s">
         <v>42</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B243" t="s">
         <v>42</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B244" t="s">
         <v>42</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B245" t="s">
         <v>42</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B246" t="s">
         <v>42</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B247" t="s">
         <v>42</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B248" t="s">
         <v>42</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B249" t="s">
         <v>42</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
